--- a/pre-dive/source-data/Centrepoint/Scotland data.xlsx
+++ b/pre-dive/source-data/Centrepoint/Scotland data.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>Youth Homelessness</t>
   </si>
   <si>
-    <t>LACODE</t>
-  </si>
-  <si>
     <t>Aberdeen City</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>2013/14</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -151,6 +145,36 @@
   </si>
   <si>
     <t>NO DATA</t>
+  </si>
+  <si>
+    <t>Financial year of application</t>
+  </si>
+  <si>
+    <t>2002/2003</t>
+  </si>
+  <si>
+    <t>2003/2004</t>
+  </si>
+  <si>
+    <t>2004/2005</t>
+  </si>
+  <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>2010/2011</t>
   </si>
 </sst>
 </file>
@@ -161,7 +185,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +210,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -215,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -227,6 +259,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -530,774 +567,2567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="12" width="10.28515625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>368</v>
+      </c>
+      <c r="E4" s="3">
+        <v>295</v>
+      </c>
+      <c r="F4" s="3">
+        <v>292</v>
+      </c>
+      <c r="G4" s="3">
+        <v>425</v>
+      </c>
+      <c r="H4" s="3">
+        <v>512</v>
+      </c>
+      <c r="I4" s="3">
+        <v>511</v>
+      </c>
+      <c r="J4" s="3">
+        <v>800</v>
+      </c>
+      <c r="K4" s="3">
+        <v>680</v>
+      </c>
+      <c r="L4" s="3">
+        <v>701</v>
+      </c>
+      <c r="M4" s="3">
+        <v>542</v>
+      </c>
+      <c r="P4">
+        <v>381</v>
+      </c>
+      <c r="Q4">
+        <v>303</v>
+      </c>
+      <c r="R4">
+        <v>273</v>
+      </c>
+      <c r="S4">
+        <v>428</v>
+      </c>
+      <c r="T4">
+        <v>505</v>
+      </c>
+      <c r="U4">
+        <v>562</v>
+      </c>
+      <c r="V4">
+        <v>770</v>
+      </c>
+      <c r="W4">
+        <v>682</v>
+      </c>
+      <c r="X4">
+        <v>442</v>
+      </c>
+      <c r="Y4">
+        <v>373</v>
+      </c>
+      <c r="Z4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3">
-        <v>542</v>
-      </c>
-      <c r="G5">
-        <v>442</v>
-      </c>
-      <c r="H5">
-        <v>373</v>
-      </c>
-      <c r="I5">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="E5" s="3">
+        <v>275</v>
+      </c>
+      <c r="F5" s="3">
+        <v>311</v>
+      </c>
+      <c r="G5" s="3">
+        <v>336</v>
+      </c>
+      <c r="H5" s="3">
+        <v>441</v>
+      </c>
+      <c r="I5" s="3">
+        <v>404</v>
+      </c>
+      <c r="J5" s="3">
+        <v>415</v>
+      </c>
+      <c r="K5" s="3">
+        <v>460</v>
+      </c>
+      <c r="L5" s="3">
+        <v>536</v>
+      </c>
+      <c r="M5" s="3">
+        <v>621</v>
+      </c>
+      <c r="P5">
+        <v>263</v>
+      </c>
+      <c r="Q5">
+        <v>281</v>
+      </c>
+      <c r="R5">
+        <v>316</v>
+      </c>
+      <c r="S5">
+        <v>337</v>
+      </c>
+      <c r="T5">
+        <v>431</v>
+      </c>
+      <c r="U5">
+        <v>410</v>
+      </c>
+      <c r="V5">
+        <v>421</v>
+      </c>
+      <c r="W5">
+        <v>467</v>
+      </c>
+      <c r="X5">
+        <v>470</v>
+      </c>
+      <c r="Y5">
+        <v>365</v>
+      </c>
+      <c r="Z5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3">
-        <v>621</v>
-      </c>
-      <c r="G6">
-        <v>470</v>
-      </c>
-      <c r="H6">
+        <v>250</v>
+      </c>
+      <c r="E6" s="3">
+        <v>258</v>
+      </c>
+      <c r="F6" s="3">
+        <v>340</v>
+      </c>
+      <c r="G6" s="3">
+        <v>317</v>
+      </c>
+      <c r="H6" s="3">
         <v>365</v>
       </c>
-      <c r="I6">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="3">
+        <v>366</v>
+      </c>
+      <c r="J6" s="3">
+        <v>369</v>
+      </c>
+      <c r="K6" s="3">
+        <v>385</v>
+      </c>
+      <c r="L6" s="3">
+        <v>373</v>
+      </c>
+      <c r="M6" s="3">
+        <v>444</v>
+      </c>
+      <c r="P6">
+        <v>235</v>
+      </c>
+      <c r="Q6">
+        <v>289</v>
+      </c>
+      <c r="R6">
+        <v>369</v>
+      </c>
+      <c r="S6">
+        <v>285</v>
+      </c>
+      <c r="T6">
+        <v>299</v>
+      </c>
+      <c r="U6">
+        <v>426</v>
+      </c>
+      <c r="V6">
+        <v>362</v>
+      </c>
+      <c r="W6">
+        <v>388</v>
+      </c>
+      <c r="X6">
+        <v>371</v>
+      </c>
+      <c r="Y6">
+        <v>162</v>
+      </c>
+      <c r="Z6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3">
-        <v>444</v>
-      </c>
-      <c r="G7">
-        <v>371</v>
-      </c>
-      <c r="H7">
-        <v>162</v>
-      </c>
-      <c r="I7">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="E7" s="3">
+        <v>231</v>
+      </c>
+      <c r="F7" s="3">
+        <v>210</v>
+      </c>
+      <c r="G7" s="3">
+        <v>248</v>
+      </c>
+      <c r="H7" s="3">
+        <v>224</v>
+      </c>
+      <c r="I7" s="3">
+        <v>250</v>
+      </c>
+      <c r="J7" s="3">
+        <v>213</v>
+      </c>
+      <c r="K7" s="3">
+        <v>250</v>
+      </c>
+      <c r="L7" s="3">
+        <v>217</v>
+      </c>
+      <c r="M7" s="3">
+        <v>212</v>
+      </c>
+      <c r="P7">
+        <v>214</v>
+      </c>
+      <c r="Q7">
+        <v>238</v>
+      </c>
+      <c r="R7">
+        <v>203</v>
+      </c>
+      <c r="S7">
+        <v>249</v>
+      </c>
+      <c r="T7">
+        <v>222</v>
+      </c>
+      <c r="U7">
+        <v>251</v>
+      </c>
+      <c r="V7">
+        <v>211</v>
+      </c>
+      <c r="W7">
+        <v>250</v>
+      </c>
+      <c r="X7">
+        <v>160</v>
+      </c>
+      <c r="Y7">
+        <v>119</v>
+      </c>
+      <c r="Z7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3">
-        <v>212</v>
-      </c>
-      <c r="G8">
-        <v>160</v>
-      </c>
-      <c r="H8">
-        <v>119</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="E8" s="3">
+        <v>149</v>
+      </c>
+      <c r="F8" s="3">
+        <v>209</v>
+      </c>
+      <c r="G8" s="3">
+        <v>248</v>
+      </c>
+      <c r="H8" s="3">
+        <v>310</v>
+      </c>
+      <c r="I8" s="3">
+        <v>225</v>
+      </c>
+      <c r="J8" s="3">
+        <v>191</v>
+      </c>
+      <c r="K8" s="3">
+        <v>239</v>
+      </c>
+      <c r="L8" s="3">
+        <v>250</v>
+      </c>
+      <c r="M8" s="3">
+        <v>307</v>
+      </c>
+      <c r="P8">
+        <v>133</v>
+      </c>
+      <c r="Q8">
+        <v>142</v>
+      </c>
+      <c r="R8">
+        <v>203</v>
+      </c>
+      <c r="S8">
+        <v>264</v>
+      </c>
+      <c r="T8">
+        <v>294</v>
+      </c>
+      <c r="U8">
+        <v>223</v>
+      </c>
+      <c r="V8">
+        <v>203</v>
+      </c>
+      <c r="W8">
+        <v>236</v>
+      </c>
+      <c r="X8">
+        <v>227</v>
+      </c>
+      <c r="Y8">
+        <v>144</v>
+      </c>
+      <c r="Z8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3">
-        <v>307</v>
-      </c>
-      <c r="G9">
-        <v>227</v>
-      </c>
-      <c r="H9">
-        <v>144</v>
-      </c>
-      <c r="I9">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="E9" s="3">
+        <v>392</v>
+      </c>
+      <c r="F9" s="3">
+        <v>435</v>
+      </c>
+      <c r="G9" s="3">
+        <v>420</v>
+      </c>
+      <c r="H9" s="3">
+        <v>415</v>
+      </c>
+      <c r="I9" s="3">
+        <v>435</v>
+      </c>
+      <c r="J9" s="3">
+        <v>417</v>
+      </c>
+      <c r="K9" s="3">
+        <v>388</v>
+      </c>
+      <c r="L9" s="3">
+        <v>358</v>
+      </c>
+      <c r="M9" s="3">
+        <v>360</v>
+      </c>
+      <c r="P9">
+        <v>410</v>
+      </c>
+      <c r="Q9">
+        <v>393</v>
+      </c>
+      <c r="R9">
+        <v>437</v>
+      </c>
+      <c r="S9">
+        <v>432</v>
+      </c>
+      <c r="T9">
+        <v>430</v>
+      </c>
+      <c r="U9">
+        <v>404</v>
+      </c>
+      <c r="V9">
+        <v>408</v>
+      </c>
+      <c r="W9">
+        <v>399</v>
+      </c>
+      <c r="X9">
+        <v>283</v>
+      </c>
+      <c r="Y9">
+        <v>255</v>
+      </c>
+      <c r="Z9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3">
-        <v>360</v>
-      </c>
-      <c r="G10">
-        <v>283</v>
-      </c>
-      <c r="H10">
-        <v>255</v>
-      </c>
-      <c r="I10">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="E10" s="3">
+        <v>185</v>
+      </c>
+      <c r="F10" s="3">
+        <v>216</v>
+      </c>
+      <c r="G10" s="3">
+        <v>409</v>
+      </c>
+      <c r="H10" s="3">
+        <v>428</v>
+      </c>
+      <c r="I10" s="3">
+        <v>620</v>
+      </c>
+      <c r="J10" s="3">
+        <v>572</v>
+      </c>
+      <c r="K10" s="3">
+        <v>671</v>
+      </c>
+      <c r="L10" s="3">
+        <v>517</v>
+      </c>
+      <c r="M10" s="3">
+        <v>583</v>
+      </c>
+      <c r="P10">
+        <v>233</v>
+      </c>
+      <c r="Q10">
+        <v>190</v>
+      </c>
+      <c r="R10">
+        <v>254</v>
+      </c>
+      <c r="S10">
+        <v>407</v>
+      </c>
+      <c r="T10">
+        <v>444</v>
+      </c>
+      <c r="U10">
+        <v>618</v>
+      </c>
+      <c r="V10">
+        <v>567</v>
+      </c>
+      <c r="W10">
+        <v>630</v>
+      </c>
+      <c r="X10">
+        <v>456</v>
+      </c>
+      <c r="Y10">
+        <v>379</v>
+      </c>
+      <c r="Z10">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3">
-        <v>583</v>
-      </c>
-      <c r="G11">
-        <v>456</v>
-      </c>
-      <c r="H11">
-        <v>379</v>
-      </c>
-      <c r="I11">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="E11" s="3">
+        <v>307</v>
+      </c>
+      <c r="F11" s="3">
+        <v>325</v>
+      </c>
+      <c r="G11" s="3">
+        <v>358</v>
+      </c>
+      <c r="H11" s="3">
+        <v>295</v>
+      </c>
+      <c r="I11" s="3">
+        <v>255</v>
+      </c>
+      <c r="J11" s="3">
+        <v>259</v>
+      </c>
+      <c r="K11" s="3">
+        <v>255</v>
+      </c>
+      <c r="L11" s="3">
+        <v>227</v>
+      </c>
+      <c r="M11" s="3">
+        <v>222</v>
+      </c>
+      <c r="P11">
+        <v>243</v>
+      </c>
+      <c r="Q11">
+        <v>311</v>
+      </c>
+      <c r="R11">
+        <v>329</v>
+      </c>
+      <c r="S11">
+        <v>363</v>
+      </c>
+      <c r="T11">
+        <v>293</v>
+      </c>
+      <c r="U11">
+        <v>269</v>
+      </c>
+      <c r="V11">
+        <v>254</v>
+      </c>
+      <c r="W11">
+        <v>241</v>
+      </c>
+      <c r="X11">
+        <v>184</v>
+      </c>
+      <c r="Y11">
+        <v>147</v>
+      </c>
+      <c r="Z11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3">
-        <v>222</v>
-      </c>
-      <c r="G12">
-        <v>184</v>
-      </c>
-      <c r="H12">
-        <v>147</v>
-      </c>
-      <c r="I12">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E12" s="3">
+        <v>142</v>
+      </c>
+      <c r="F12" s="3">
+        <v>135</v>
+      </c>
+      <c r="G12" s="3">
+        <v>134</v>
+      </c>
+      <c r="H12" s="3">
+        <v>155</v>
+      </c>
+      <c r="I12" s="3">
+        <v>175</v>
+      </c>
+      <c r="J12" s="3">
+        <v>161</v>
+      </c>
+      <c r="K12" s="3">
+        <v>165</v>
+      </c>
+      <c r="L12" s="3">
+        <v>150</v>
+      </c>
+      <c r="M12" s="3">
+        <v>215</v>
+      </c>
+      <c r="P12">
+        <v>111</v>
+      </c>
+      <c r="Q12">
+        <v>143</v>
+      </c>
+      <c r="R12">
+        <v>125</v>
+      </c>
+      <c r="S12">
+        <v>132</v>
+      </c>
+      <c r="T12">
+        <v>153</v>
+      </c>
+      <c r="U12">
+        <v>173</v>
+      </c>
+      <c r="V12">
+        <v>165</v>
+      </c>
+      <c r="W12">
+        <v>163</v>
+      </c>
+      <c r="X12">
+        <v>145</v>
+      </c>
+      <c r="Y12">
+        <v>107</v>
+      </c>
+      <c r="Z12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3">
-        <v>215</v>
-      </c>
-      <c r="G13">
-        <v>145</v>
-      </c>
-      <c r="H13">
-        <v>107</v>
-      </c>
-      <c r="I13">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E13" s="3">
+        <v>196</v>
+      </c>
+      <c r="F13" s="3">
+        <v>230</v>
+      </c>
+      <c r="G13" s="3">
+        <v>303</v>
+      </c>
+      <c r="H13" s="3">
+        <v>282</v>
+      </c>
+      <c r="I13" s="3">
+        <v>304</v>
+      </c>
+      <c r="J13" s="3">
+        <v>302</v>
+      </c>
+      <c r="K13" s="3">
+        <v>349</v>
+      </c>
+      <c r="L13" s="3">
+        <v>365</v>
+      </c>
+      <c r="M13" s="3">
+        <v>303</v>
+      </c>
+      <c r="P13">
+        <v>212</v>
+      </c>
+      <c r="Q13">
+        <v>204</v>
+      </c>
+      <c r="R13">
+        <v>239</v>
+      </c>
+      <c r="S13">
+        <v>296</v>
+      </c>
+      <c r="T13">
+        <v>300</v>
+      </c>
+      <c r="U13">
+        <v>293</v>
+      </c>
+      <c r="V13">
+        <v>294</v>
+      </c>
+      <c r="W13">
+        <v>347</v>
+      </c>
+      <c r="X13">
+        <v>267</v>
+      </c>
+      <c r="Y13">
+        <v>206</v>
+      </c>
+      <c r="Z13">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3">
-        <v>303</v>
-      </c>
-      <c r="G14">
-        <v>267</v>
-      </c>
-      <c r="H14">
-        <v>206</v>
-      </c>
-      <c r="I14">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3">
+        <v>92</v>
+      </c>
+      <c r="G14" s="3">
+        <v>86</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>86</v>
+      </c>
+      <c r="J14" s="3">
+        <v>85</v>
+      </c>
+      <c r="K14" s="3">
+        <v>85</v>
+      </c>
+      <c r="L14" s="3">
+        <v>73</v>
+      </c>
+      <c r="M14" s="3">
+        <v>77</v>
+      </c>
+      <c r="P14">
+        <v>55</v>
+      </c>
+      <c r="Q14">
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <v>87</v>
+      </c>
+      <c r="S14">
+        <v>87</v>
+      </c>
+      <c r="T14">
+        <v>101</v>
+      </c>
+      <c r="U14">
+        <v>86</v>
+      </c>
+      <c r="V14">
+        <v>88</v>
+      </c>
+      <c r="W14">
+        <v>83</v>
+      </c>
+      <c r="X14">
+        <v>56</v>
+      </c>
+      <c r="Y14">
+        <v>61</v>
+      </c>
+      <c r="Z14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3">
-        <v>77</v>
-      </c>
-      <c r="G15">
-        <v>56</v>
-      </c>
-      <c r="H15">
-        <v>61</v>
-      </c>
-      <c r="I15">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1797</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1871</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1829</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1722</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1785</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1676</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1639</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1574</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1425</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1389</v>
+      </c>
+      <c r="P15">
+        <v>1794</v>
+      </c>
+      <c r="Q15">
+        <v>1866</v>
+      </c>
+      <c r="R15">
+        <v>1824</v>
+      </c>
+      <c r="S15">
+        <v>1720</v>
+      </c>
+      <c r="T15">
+        <v>1782</v>
+      </c>
+      <c r="U15">
+        <v>1685</v>
+      </c>
+      <c r="V15">
+        <v>1637</v>
+      </c>
+      <c r="W15">
+        <v>1578</v>
+      </c>
+      <c r="X15">
+        <v>1379</v>
+      </c>
+      <c r="Y15">
+        <v>1136</v>
+      </c>
+      <c r="Z15">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3">
         <v>40</v>
       </c>
-      <c r="D16" s="3">
-        <v>1389</v>
-      </c>
-      <c r="G16">
-        <v>1379</v>
-      </c>
-      <c r="H16">
-        <v>1136</v>
-      </c>
-      <c r="I16">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3">
+        <v>44</v>
+      </c>
+      <c r="G16" s="3">
+        <v>44</v>
+      </c>
+      <c r="H16" s="3">
+        <v>48</v>
+      </c>
+      <c r="I16" s="3">
+        <v>49</v>
+      </c>
+      <c r="J16" s="3">
+        <v>58</v>
+      </c>
+      <c r="K16" s="3">
+        <v>44</v>
+      </c>
+      <c r="L16" s="3">
+        <v>54</v>
+      </c>
+      <c r="M16" s="3">
+        <v>63</v>
+      </c>
+      <c r="P16">
+        <v>37</v>
+      </c>
+      <c r="Q16">
+        <v>38</v>
+      </c>
+      <c r="R16">
+        <v>46</v>
+      </c>
+      <c r="S16">
+        <v>48</v>
+      </c>
+      <c r="T16">
+        <v>46</v>
+      </c>
+      <c r="U16">
+        <v>47</v>
+      </c>
+      <c r="V16">
+        <v>57</v>
+      </c>
+      <c r="W16">
+        <v>49</v>
+      </c>
+      <c r="X16">
+        <v>50</v>
+      </c>
+      <c r="Y16">
+        <v>38</v>
+      </c>
+      <c r="Z16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3">
-        <v>63</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="H17">
-        <v>38</v>
-      </c>
-      <c r="I17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="E17" s="3">
+        <v>392</v>
+      </c>
+      <c r="F17" s="3">
+        <v>395</v>
+      </c>
+      <c r="G17" s="3">
+        <v>571</v>
+      </c>
+      <c r="H17" s="3">
+        <v>498</v>
+      </c>
+      <c r="I17" s="3">
+        <v>713</v>
+      </c>
+      <c r="J17" s="3">
+        <v>801</v>
+      </c>
+      <c r="K17" s="3">
+        <v>744</v>
+      </c>
+      <c r="L17" s="3">
+        <v>670</v>
+      </c>
+      <c r="M17" s="3">
+        <v>411</v>
+      </c>
+      <c r="P17">
+        <v>380</v>
+      </c>
+      <c r="Q17">
+        <v>408</v>
+      </c>
+      <c r="R17">
+        <v>414</v>
+      </c>
+      <c r="S17">
+        <v>557</v>
+      </c>
+      <c r="T17">
+        <v>539</v>
+      </c>
+      <c r="U17">
+        <v>705</v>
+      </c>
+      <c r="V17">
+        <v>775</v>
+      </c>
+      <c r="W17">
+        <v>734</v>
+      </c>
+      <c r="X17">
+        <v>348</v>
+      </c>
+      <c r="Y17">
+        <v>292</v>
+      </c>
+      <c r="Z17">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3">
-        <v>411</v>
-      </c>
-      <c r="G18">
-        <v>348</v>
-      </c>
-      <c r="H18">
-        <v>292</v>
-      </c>
-      <c r="I18">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1311</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1187</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1210</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1132</v>
+      </c>
+      <c r="I18" s="3">
+        <v>984</v>
+      </c>
+      <c r="J18" s="3">
+        <v>904</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1088</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1271</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1556</v>
+      </c>
+      <c r="P18">
+        <v>1008</v>
+      </c>
+      <c r="Q18">
+        <v>1296</v>
+      </c>
+      <c r="R18">
+        <v>1174</v>
+      </c>
+      <c r="S18">
+        <v>1206</v>
+      </c>
+      <c r="T18">
+        <v>1128</v>
+      </c>
+      <c r="U18">
+        <v>993</v>
+      </c>
+      <c r="V18">
+        <v>941</v>
+      </c>
+      <c r="W18">
+        <v>1053</v>
+      </c>
+      <c r="X18">
+        <v>1028</v>
+      </c>
+      <c r="Y18">
+        <v>815</v>
+      </c>
+      <c r="Z18">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="3">
-        <v>1556</v>
-      </c>
-      <c r="G19">
-        <v>1028</v>
-      </c>
-      <c r="H19">
-        <v>815</v>
-      </c>
-      <c r="I19">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3783</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3449</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2968</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2867</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2520</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2051</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1931</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2253</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2014</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2486</v>
+      </c>
+      <c r="P19">
+        <v>3810</v>
+      </c>
+      <c r="Q19">
+        <v>3459</v>
+      </c>
+      <c r="R19">
+        <v>2986</v>
+      </c>
+      <c r="S19">
+        <v>2847</v>
+      </c>
+      <c r="T19">
+        <v>2556</v>
+      </c>
+      <c r="U19">
+        <v>2067</v>
+      </c>
+      <c r="V19">
+        <v>1919</v>
+      </c>
+      <c r="W19">
+        <v>2221</v>
+      </c>
+      <c r="X19">
+        <v>1722</v>
+      </c>
+      <c r="Y19">
+        <v>1385</v>
+      </c>
+      <c r="Z19">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3">
-        <v>2486</v>
-      </c>
-      <c r="G20">
-        <v>1722</v>
-      </c>
-      <c r="H20">
-        <v>1385</v>
-      </c>
-      <c r="I20">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="E20" s="3">
+        <v>581</v>
+      </c>
+      <c r="F20" s="3">
+        <v>627</v>
+      </c>
+      <c r="G20" s="3">
+        <v>670</v>
+      </c>
+      <c r="H20" s="3">
+        <v>565</v>
+      </c>
+      <c r="I20" s="3">
+        <v>555</v>
+      </c>
+      <c r="J20" s="3">
+        <v>669</v>
+      </c>
+      <c r="K20" s="3">
+        <v>678</v>
+      </c>
+      <c r="L20" s="3">
+        <v>617</v>
+      </c>
+      <c r="M20" s="3">
+        <v>465</v>
+      </c>
+      <c r="P20">
+        <v>414</v>
+      </c>
+      <c r="Q20">
+        <v>576</v>
+      </c>
+      <c r="R20">
+        <v>642</v>
+      </c>
+      <c r="S20">
+        <v>677</v>
+      </c>
+      <c r="T20">
+        <v>542</v>
+      </c>
+      <c r="U20">
+        <v>605</v>
+      </c>
+      <c r="V20">
+        <v>627</v>
+      </c>
+      <c r="W20">
+        <v>695</v>
+      </c>
+      <c r="X20">
+        <v>369</v>
+      </c>
+      <c r="Y20">
+        <v>304</v>
+      </c>
+      <c r="Z20">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3">
-        <v>465</v>
-      </c>
-      <c r="G21">
-        <v>369</v>
-      </c>
-      <c r="H21">
-        <v>304</v>
-      </c>
-      <c r="I21">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E21" s="3">
+        <v>191</v>
+      </c>
+      <c r="F21" s="3">
+        <v>157</v>
+      </c>
+      <c r="G21" s="3">
+        <v>167</v>
+      </c>
+      <c r="H21" s="3">
+        <v>169</v>
+      </c>
+      <c r="I21" s="3">
+        <v>104</v>
+      </c>
+      <c r="J21" s="3">
+        <v>109</v>
+      </c>
+      <c r="K21" s="3">
+        <v>127</v>
+      </c>
+      <c r="L21" s="3">
+        <v>114</v>
+      </c>
+      <c r="M21" s="3">
+        <v>139</v>
+      </c>
+      <c r="P21">
+        <v>202</v>
+      </c>
+      <c r="Q21">
+        <v>196</v>
+      </c>
+      <c r="R21">
+        <v>163</v>
+      </c>
+      <c r="S21">
+        <v>157</v>
+      </c>
+      <c r="T21">
+        <v>172</v>
+      </c>
+      <c r="U21">
+        <v>97</v>
+      </c>
+      <c r="V21">
+        <v>112</v>
+      </c>
+      <c r="W21">
+        <v>129</v>
+      </c>
+      <c r="X21">
+        <v>108</v>
+      </c>
+      <c r="Y21">
+        <v>74</v>
+      </c>
+      <c r="Z21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="3">
-        <v>139</v>
-      </c>
-      <c r="G22">
-        <v>108</v>
-      </c>
-      <c r="H22">
-        <v>74</v>
-      </c>
-      <c r="I22">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="E22" s="3">
+        <v>219</v>
+      </c>
+      <c r="F22" s="3">
+        <v>244</v>
+      </c>
+      <c r="G22" s="3">
+        <v>247</v>
+      </c>
+      <c r="H22" s="3">
+        <v>267</v>
+      </c>
+      <c r="I22" s="3">
+        <v>228</v>
+      </c>
+      <c r="J22" s="3">
+        <v>228</v>
+      </c>
+      <c r="K22" s="3">
+        <v>237</v>
+      </c>
+      <c r="L22" s="3">
+        <v>198</v>
+      </c>
+      <c r="M22" s="3">
+        <v>312</v>
+      </c>
+      <c r="P22">
+        <v>176</v>
+      </c>
+      <c r="Q22">
+        <v>222</v>
+      </c>
+      <c r="R22">
+        <v>241</v>
+      </c>
+      <c r="S22">
+        <v>248</v>
+      </c>
+      <c r="T22">
+        <v>275</v>
+      </c>
+      <c r="U22">
+        <v>237</v>
+      </c>
+      <c r="V22">
+        <v>220</v>
+      </c>
+      <c r="W22">
+        <v>240</v>
+      </c>
+      <c r="X22">
+        <v>247</v>
+      </c>
+      <c r="Y22">
+        <v>217</v>
+      </c>
+      <c r="Z22">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="3">
-        <v>312</v>
-      </c>
-      <c r="G23">
-        <v>247</v>
-      </c>
-      <c r="H23">
+        <v>87</v>
+      </c>
+      <c r="E23" s="3">
+        <v>151</v>
+      </c>
+      <c r="F23" s="3">
+        <v>204</v>
+      </c>
+      <c r="G23" s="3">
+        <v>214</v>
+      </c>
+      <c r="H23" s="3">
+        <v>236</v>
+      </c>
+      <c r="I23" s="3">
+        <v>249</v>
+      </c>
+      <c r="J23" s="3">
+        <v>257</v>
+      </c>
+      <c r="K23" s="3">
+        <v>224</v>
+      </c>
+      <c r="L23" s="3">
         <v>217</v>
       </c>
-      <c r="I23">
+      <c r="M23" s="3">
+        <v>213</v>
+      </c>
+      <c r="P23">
+        <v>90</v>
+      </c>
+      <c r="Q23">
         <v>168</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>189</v>
+      </c>
+      <c r="S23">
+        <v>219</v>
+      </c>
+      <c r="T23">
+        <v>238</v>
+      </c>
+      <c r="U23">
+        <v>258</v>
+      </c>
+      <c r="V23">
+        <v>244</v>
+      </c>
+      <c r="W23">
+        <v>240</v>
+      </c>
+      <c r="X23">
+        <v>158</v>
+      </c>
+      <c r="Y23">
+        <v>150</v>
+      </c>
+      <c r="Z23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3">
-        <v>213</v>
-      </c>
-      <c r="G24">
-        <v>158</v>
-      </c>
-      <c r="H24">
-        <v>150</v>
-      </c>
-      <c r="I24">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+      <c r="E24" s="3">
+        <v>537</v>
+      </c>
+      <c r="F24" s="3">
+        <v>442</v>
+      </c>
+      <c r="G24" s="3">
+        <v>442</v>
+      </c>
+      <c r="H24" s="3">
+        <v>443</v>
+      </c>
+      <c r="I24" s="3">
+        <v>407</v>
+      </c>
+      <c r="J24" s="3">
+        <v>416</v>
+      </c>
+      <c r="K24" s="3">
+        <v>435</v>
+      </c>
+      <c r="L24" s="3">
+        <v>331</v>
+      </c>
+      <c r="M24" s="3">
+        <v>299</v>
+      </c>
+      <c r="P24">
+        <v>620</v>
+      </c>
+      <c r="Q24">
+        <v>552</v>
+      </c>
+      <c r="R24">
+        <v>436</v>
+      </c>
+      <c r="S24">
+        <v>438</v>
+      </c>
+      <c r="T24">
+        <v>447</v>
+      </c>
+      <c r="U24">
+        <v>403</v>
+      </c>
+      <c r="V24">
+        <v>411</v>
+      </c>
+      <c r="W24">
+        <v>433</v>
+      </c>
+      <c r="X24">
+        <v>258</v>
+      </c>
+      <c r="Y24">
+        <v>199</v>
+      </c>
+      <c r="Z24">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3">
-        <v>299</v>
-      </c>
-      <c r="G25">
-        <v>258</v>
-      </c>
-      <c r="H25">
-        <v>199</v>
-      </c>
-      <c r="I25">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="E25" s="3">
+        <v>648</v>
+      </c>
+      <c r="F25" s="3">
+        <v>964</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1024</v>
+      </c>
+      <c r="H25" s="3">
+        <v>956</v>
+      </c>
+      <c r="I25" s="3">
+        <v>923</v>
+      </c>
+      <c r="J25" s="3">
+        <v>851</v>
+      </c>
+      <c r="K25" s="3">
+        <v>756</v>
+      </c>
+      <c r="L25" s="3">
+        <v>614</v>
+      </c>
+      <c r="M25" s="3">
+        <v>755</v>
+      </c>
+      <c r="P25">
+        <v>582</v>
+      </c>
+      <c r="Q25">
+        <v>660</v>
+      </c>
+      <c r="R25">
+        <v>994</v>
+      </c>
+      <c r="S25">
+        <v>1014</v>
+      </c>
+      <c r="T25">
+        <v>959</v>
+      </c>
+      <c r="U25">
+        <v>931</v>
+      </c>
+      <c r="V25">
+        <v>835</v>
+      </c>
+      <c r="W25">
+        <v>735</v>
+      </c>
+      <c r="X25">
+        <v>560</v>
+      </c>
+      <c r="Y25">
+        <v>524</v>
+      </c>
+      <c r="Z25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3">
-        <v>755</v>
-      </c>
-      <c r="G26">
-        <v>560</v>
-      </c>
-      <c r="H26">
-        <v>524</v>
-      </c>
-      <c r="I26">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3">
+        <v>29</v>
+      </c>
+      <c r="G26" s="3">
+        <v>53</v>
+      </c>
+      <c r="H26" s="3">
+        <v>53</v>
+      </c>
+      <c r="I26" s="3">
+        <v>34</v>
+      </c>
+      <c r="J26" s="3">
+        <v>34</v>
+      </c>
+      <c r="K26" s="3">
+        <v>31</v>
+      </c>
+      <c r="L26" s="3">
+        <v>34</v>
+      </c>
+      <c r="M26" s="3">
+        <v>55</v>
+      </c>
+      <c r="P26">
+        <v>28</v>
+      </c>
+      <c r="Q26">
+        <v>18</v>
+      </c>
+      <c r="R26">
+        <v>30</v>
+      </c>
+      <c r="S26">
+        <v>49</v>
+      </c>
+      <c r="T26">
+        <v>57</v>
+      </c>
+      <c r="U26">
+        <v>30</v>
+      </c>
+      <c r="V26">
+        <v>34</v>
+      </c>
+      <c r="W26">
+        <v>30</v>
+      </c>
+      <c r="X26">
+        <v>47</v>
+      </c>
+      <c r="Y26">
+        <v>39</v>
+      </c>
+      <c r="Z26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3">
-        <v>55</v>
-      </c>
-      <c r="G27">
-        <v>47</v>
-      </c>
-      <c r="H27">
-        <v>39</v>
-      </c>
-      <c r="I27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="E27" s="3">
+        <v>284</v>
+      </c>
+      <c r="F27" s="3">
+        <v>354</v>
+      </c>
+      <c r="G27" s="3">
+        <v>280</v>
+      </c>
+      <c r="H27" s="3">
+        <v>210</v>
+      </c>
+      <c r="I27" s="3">
+        <v>286</v>
+      </c>
+      <c r="J27" s="3">
+        <v>252</v>
+      </c>
+      <c r="K27" s="3">
+        <v>296</v>
+      </c>
+      <c r="L27" s="3">
+        <v>395</v>
+      </c>
+      <c r="M27" s="3">
+        <v>347</v>
+      </c>
+      <c r="P27">
+        <v>243</v>
+      </c>
+      <c r="Q27">
+        <v>303</v>
+      </c>
+      <c r="R27">
+        <v>343</v>
+      </c>
+      <c r="S27">
+        <v>294</v>
+      </c>
+      <c r="T27">
+        <v>202</v>
+      </c>
+      <c r="U27">
+        <v>274</v>
+      </c>
+      <c r="V27">
+        <v>254</v>
+      </c>
+      <c r="W27">
+        <v>293</v>
+      </c>
+      <c r="X27">
+        <v>290</v>
+      </c>
+      <c r="Y27">
+        <v>232</v>
+      </c>
+      <c r="Z27">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3">
+        <v>222</v>
+      </c>
+      <c r="E28" s="3">
+        <v>214</v>
+      </c>
+      <c r="F28" s="3">
+        <v>244</v>
+      </c>
+      <c r="G28" s="3">
+        <v>204</v>
+      </c>
+      <c r="H28" s="3">
+        <v>274</v>
+      </c>
+      <c r="I28" s="3">
         <v>347</v>
       </c>
-      <c r="G28">
-        <v>290</v>
-      </c>
-      <c r="H28">
-        <v>232</v>
-      </c>
-      <c r="I28">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3">
+        <v>370</v>
+      </c>
+      <c r="K28" s="3">
+        <v>443</v>
+      </c>
+      <c r="L28" s="3">
+        <v>373</v>
+      </c>
+      <c r="M28" s="3">
+        <v>429</v>
+      </c>
+      <c r="P28">
+        <v>223</v>
+      </c>
+      <c r="Q28">
+        <v>217</v>
+      </c>
+      <c r="R28">
+        <v>237</v>
+      </c>
+      <c r="S28">
+        <v>203</v>
+      </c>
+      <c r="T28">
+        <v>267</v>
+      </c>
+      <c r="U28">
+        <v>349</v>
+      </c>
+      <c r="V28">
+        <v>375</v>
+      </c>
+      <c r="W28">
+        <v>439</v>
+      </c>
+      <c r="X28">
+        <v>331</v>
+      </c>
+      <c r="Y28">
+        <v>298</v>
+      </c>
+      <c r="Z28">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3">
-        <v>429</v>
-      </c>
-      <c r="G29">
-        <v>331</v>
-      </c>
-      <c r="H29">
-        <v>298</v>
-      </c>
-      <c r="I29">
+        <v>163</v>
+      </c>
+      <c r="E29" s="3">
+        <v>201</v>
+      </c>
+      <c r="F29" s="3">
+        <v>167</v>
+      </c>
+      <c r="G29" s="3">
+        <v>199</v>
+      </c>
+      <c r="H29" s="3">
+        <v>203</v>
+      </c>
+      <c r="I29" s="3">
+        <v>253</v>
+      </c>
+      <c r="J29" s="3">
+        <v>289</v>
+      </c>
+      <c r="K29" s="3">
         <v>239</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L29" s="3">
+        <v>237</v>
+      </c>
+      <c r="M29" s="3">
+        <v>204</v>
+      </c>
+      <c r="P29">
+        <v>174</v>
+      </c>
+      <c r="Q29">
+        <v>197</v>
+      </c>
+      <c r="R29">
+        <v>165</v>
+      </c>
+      <c r="S29">
+        <v>211</v>
+      </c>
+      <c r="T29">
+        <v>199</v>
+      </c>
+      <c r="U29">
+        <v>262</v>
+      </c>
+      <c r="V29">
+        <v>284</v>
+      </c>
+      <c r="W29">
+        <v>247</v>
+      </c>
+      <c r="X29">
+        <v>155</v>
+      </c>
+      <c r="Y29">
+        <v>179</v>
+      </c>
+      <c r="Z29">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3">
-        <v>204</v>
-      </c>
-      <c r="G30">
-        <v>155</v>
-      </c>
-      <c r="H30">
-        <v>179</v>
-      </c>
-      <c r="I30">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E30" s="3">
+        <v>38</v>
+      </c>
+      <c r="F30" s="3">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3">
+        <v>36</v>
+      </c>
+      <c r="H30" s="3">
+        <v>67</v>
+      </c>
+      <c r="I30" s="3">
+        <v>58</v>
+      </c>
+      <c r="J30" s="3">
+        <v>72</v>
+      </c>
+      <c r="K30" s="3">
+        <v>74</v>
+      </c>
+      <c r="L30" s="3">
+        <v>81</v>
+      </c>
+      <c r="M30" s="3">
+        <v>95</v>
+      </c>
+      <c r="P30">
+        <v>51</v>
+      </c>
+      <c r="Q30">
+        <v>38</v>
+      </c>
+      <c r="R30">
+        <v>27</v>
+      </c>
+      <c r="S30">
+        <v>46</v>
+      </c>
+      <c r="T30">
+        <v>57</v>
+      </c>
+      <c r="U30">
+        <v>58</v>
+      </c>
+      <c r="V30">
+        <v>69</v>
+      </c>
+      <c r="W30">
+        <v>76</v>
+      </c>
+      <c r="X30">
+        <v>74</v>
+      </c>
+      <c r="Y30">
+        <v>44</v>
+      </c>
+      <c r="Z30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="3">
-        <v>95</v>
-      </c>
-      <c r="G31">
-        <v>74</v>
-      </c>
-      <c r="H31">
-        <v>44</v>
-      </c>
-      <c r="I31">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="E31" s="3">
+        <v>212</v>
+      </c>
+      <c r="F31" s="3">
+        <v>241</v>
+      </c>
+      <c r="G31" s="3">
+        <v>213</v>
+      </c>
+      <c r="H31" s="3">
+        <v>233</v>
+      </c>
+      <c r="I31" s="3">
+        <v>247</v>
+      </c>
+      <c r="J31" s="3">
+        <v>234</v>
+      </c>
+      <c r="K31" s="3">
+        <v>269</v>
+      </c>
+      <c r="L31" s="3">
+        <v>268</v>
+      </c>
+      <c r="M31" s="3">
+        <v>345</v>
+      </c>
+      <c r="P31">
+        <v>224</v>
+      </c>
+      <c r="Q31">
+        <v>222</v>
+      </c>
+      <c r="R31">
+        <v>235</v>
+      </c>
+      <c r="S31">
+        <v>216</v>
+      </c>
+      <c r="T31">
+        <v>249</v>
+      </c>
+      <c r="U31">
+        <v>237</v>
+      </c>
+      <c r="V31">
+        <v>225</v>
+      </c>
+      <c r="W31">
+        <v>274</v>
+      </c>
+      <c r="X31">
+        <v>255</v>
+      </c>
+      <c r="Y31">
+        <v>193</v>
+      </c>
+      <c r="Z31">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="3">
-        <v>345</v>
-      </c>
-      <c r="G32">
-        <v>255</v>
-      </c>
-      <c r="H32">
-        <v>193</v>
-      </c>
-      <c r="I32">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="E32" s="3">
+        <v>580</v>
+      </c>
+      <c r="F32" s="3">
+        <v>561</v>
+      </c>
+      <c r="G32" s="3">
+        <v>606</v>
+      </c>
+      <c r="H32" s="3">
+        <v>625</v>
+      </c>
+      <c r="I32" s="3">
+        <v>741</v>
+      </c>
+      <c r="J32" s="3">
+        <v>822</v>
+      </c>
+      <c r="K32" s="3">
+        <v>849</v>
+      </c>
+      <c r="L32" s="3">
+        <v>749</v>
+      </c>
+      <c r="M32" s="3">
+        <v>785</v>
+      </c>
+      <c r="P32">
+        <v>588</v>
+      </c>
+      <c r="Q32">
+        <v>592</v>
+      </c>
+      <c r="R32">
+        <v>550</v>
+      </c>
+      <c r="S32">
+        <v>606</v>
+      </c>
+      <c r="T32">
+        <v>631</v>
+      </c>
+      <c r="U32">
+        <v>744</v>
+      </c>
+      <c r="V32">
+        <v>837</v>
+      </c>
+      <c r="W32">
+        <v>856</v>
+      </c>
+      <c r="X32">
+        <v>645</v>
+      </c>
+      <c r="Y32">
+        <v>625</v>
+      </c>
+      <c r="Z32">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="3">
-        <v>785</v>
-      </c>
-      <c r="G33">
-        <v>645</v>
-      </c>
-      <c r="H33">
-        <v>625</v>
-      </c>
-      <c r="I33">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="E33" s="3">
+        <v>169</v>
+      </c>
+      <c r="F33" s="3">
+        <v>211</v>
+      </c>
+      <c r="G33" s="3">
+        <v>198</v>
+      </c>
+      <c r="H33" s="3">
+        <v>168</v>
+      </c>
+      <c r="I33" s="3">
+        <v>201</v>
+      </c>
+      <c r="J33" s="3">
+        <v>238</v>
+      </c>
+      <c r="K33" s="3">
+        <v>233</v>
+      </c>
+      <c r="L33" s="3">
+        <v>186</v>
+      </c>
+      <c r="M33" s="3">
+        <v>167</v>
+      </c>
+      <c r="P33">
+        <v>191</v>
+      </c>
+      <c r="Q33">
+        <v>186</v>
+      </c>
+      <c r="R33">
+        <v>205</v>
+      </c>
+      <c r="S33">
+        <v>189</v>
+      </c>
+      <c r="T33">
+        <v>172</v>
+      </c>
+      <c r="U33">
+        <v>202</v>
+      </c>
+      <c r="V33">
+        <v>244</v>
+      </c>
+      <c r="W33">
+        <v>236</v>
+      </c>
+      <c r="X33">
+        <v>140</v>
+      </c>
+      <c r="Y33">
+        <v>120</v>
+      </c>
+      <c r="Z33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3">
-        <v>167</v>
-      </c>
-      <c r="G34">
-        <v>140</v>
-      </c>
-      <c r="H34">
-        <v>120</v>
-      </c>
-      <c r="I34">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="E34" s="3">
+        <v>301</v>
+      </c>
+      <c r="F34" s="3">
+        <v>411</v>
+      </c>
+      <c r="G34" s="3">
+        <v>449</v>
+      </c>
+      <c r="H34" s="3">
+        <v>412</v>
+      </c>
+      <c r="I34" s="3">
+        <v>374</v>
+      </c>
+      <c r="J34" s="3">
+        <v>465</v>
+      </c>
+      <c r="K34" s="3">
+        <v>464</v>
+      </c>
+      <c r="L34" s="3">
+        <v>432</v>
+      </c>
+      <c r="M34" s="3">
+        <v>528</v>
+      </c>
+      <c r="P34">
+        <v>326</v>
+      </c>
+      <c r="Q34">
+        <v>287</v>
+      </c>
+      <c r="R34">
+        <v>405</v>
+      </c>
+      <c r="S34">
+        <v>455</v>
+      </c>
+      <c r="T34">
+        <v>414</v>
+      </c>
+      <c r="U34">
+        <v>370</v>
+      </c>
+      <c r="V34">
+        <v>464</v>
+      </c>
+      <c r="W34">
+        <v>465</v>
+      </c>
+      <c r="X34">
+        <v>386</v>
+      </c>
+      <c r="Y34">
+        <v>343</v>
+      </c>
+      <c r="Z34">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3">
+        <v>690</v>
+      </c>
+      <c r="E35" s="3">
+        <v>692</v>
+      </c>
+      <c r="F35" s="3">
+        <v>671</v>
+      </c>
+      <c r="G35" s="3">
+        <v>602</v>
+      </c>
+      <c r="H35" s="3">
+        <v>593</v>
+      </c>
+      <c r="I35" s="3">
         <v>528</v>
       </c>
-      <c r="G35">
-        <v>386</v>
-      </c>
-      <c r="H35">
-        <v>343</v>
-      </c>
-      <c r="I35">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3">
+        <v>583</v>
+      </c>
+      <c r="K35" s="3">
+        <v>585</v>
+      </c>
+      <c r="L35" s="3">
+        <v>628</v>
+      </c>
+      <c r="M35" s="3">
+        <v>693</v>
+      </c>
+      <c r="P35">
+        <v>708</v>
+      </c>
+      <c r="Q35">
+        <v>724</v>
+      </c>
+      <c r="R35">
+        <v>648</v>
+      </c>
+      <c r="S35">
+        <v>602</v>
+      </c>
+      <c r="T35">
+        <v>599</v>
+      </c>
+      <c r="U35">
+        <v>537</v>
+      </c>
+      <c r="V35">
+        <v>560</v>
+      </c>
+      <c r="W35">
+        <v>595</v>
+      </c>
+      <c r="X35">
+        <v>528</v>
+      </c>
+      <c r="Y35">
+        <v>400</v>
+      </c>
+      <c r="Z35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3">
-        <v>693</v>
-      </c>
-      <c r="G36">
-        <v>528</v>
-      </c>
-      <c r="H36">
-        <v>400</v>
-      </c>
-      <c r="I36">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="4">
+        <v>14209</v>
+      </c>
+      <c r="E36" s="3">
+        <v>14587</v>
+      </c>
+      <c r="F36" s="3">
+        <v>14773</v>
+      </c>
+      <c r="G36" s="3">
+        <v>15302</v>
+      </c>
+      <c r="H36" s="3">
+        <v>14984</v>
+      </c>
+      <c r="I36" s="3">
+        <v>14639</v>
+      </c>
+      <c r="J36" s="3">
+        <v>15006</v>
+      </c>
+      <c r="K36" s="3">
+        <v>15570</v>
+      </c>
+      <c r="L36" s="3">
+        <v>14675</v>
+      </c>
+      <c r="M36" s="4">
         <v>15622</v>
       </c>
-      <c r="G37">
+      <c r="P36">
+        <v>14359</v>
+      </c>
+      <c r="Q36">
+        <v>14785</v>
+      </c>
+      <c r="R36">
+        <v>14789</v>
+      </c>
+      <c r="S36">
+        <v>15282</v>
+      </c>
+      <c r="T36">
+        <v>15003</v>
+      </c>
+      <c r="U36">
+        <v>14806</v>
+      </c>
+      <c r="V36">
+        <v>14867</v>
+      </c>
+      <c r="W36">
+        <v>15504</v>
+      </c>
+      <c r="X36">
         <v>12139</v>
       </c>
-      <c r="H37">
+      <c r="Y36">
         <v>9925</v>
       </c>
-      <c r="I37">
+      <c r="Z36">
         <v>8321</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="D1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
